--- a/data/trans_orig/P17E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14151</v>
+        <v>14873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31744</v>
+        <v>31498</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1779985783551969</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1114475573417453</v>
+        <v>0.1171330358281321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2500073402415194</v>
+        <v>0.2480686918405957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>37172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27385</v>
+        <v>27593</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48680</v>
+        <v>49148</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1736172476589484</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.127905994234007</v>
+        <v>0.1288776152707222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2273686549041639</v>
+        <v>0.2295572765433462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -786,19 +786,19 @@
         <v>59773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46863</v>
+        <v>47335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75570</v>
+        <v>73309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1752483136229846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1373974383071246</v>
+        <v>0.138781065060304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2215630737423565</v>
+        <v>0.2149338621578062</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>104373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95230</v>
+        <v>95476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112823</v>
+        <v>112101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8220014216448031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7499926597584805</v>
+        <v>0.7519313081594042</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8885524426582547</v>
+        <v>0.8828669641718678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -836,19 +836,19 @@
         <v>176929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165421</v>
+        <v>164953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>186716</v>
+        <v>186508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8263827523410515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7726313450958363</v>
+        <v>0.7704427234566538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8720940057659932</v>
+        <v>0.8711223847292776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>289</v>
@@ -857,19 +857,19 @@
         <v>281303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265506</v>
+        <v>267767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>294213</v>
+        <v>293741</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8247516863770155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.778436926257644</v>
+        <v>0.785066137842194</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.862602561692876</v>
+        <v>0.861218934939696</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23198</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15388</v>
+        <v>15407</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33938</v>
+        <v>33160</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1205994808155139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07999813490997633</v>
+        <v>0.08009803489731379</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1764394676006409</v>
+        <v>0.1723917534486754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -982,19 +982,19 @@
         <v>60419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47549</v>
+        <v>47104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75881</v>
+        <v>75045</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1965352675546414</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1546712232232192</v>
+        <v>0.1532241159186379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2468324473380487</v>
+        <v>0.2441118778327687</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -1003,19 +1003,19 @@
         <v>83616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67290</v>
+        <v>68233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101542</v>
+        <v>101039</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1673090735309508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1346417718508043</v>
+        <v>0.1365290544463556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2031775748202853</v>
+        <v>0.202170986441792</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>169154</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158414</v>
+        <v>159192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176964</v>
+        <v>176945</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.879400519184486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.823560532399359</v>
+        <v>0.8276082465513244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9200018650900237</v>
+        <v>0.9199019651026858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>233</v>
@@ -1053,19 +1053,19 @@
         <v>247000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231538</v>
+        <v>232374</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>259870</v>
+        <v>260315</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8034647324453587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7531675526619515</v>
+        <v>0.7558881221672312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.845328776776781</v>
+        <v>0.8467758840813621</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>394</v>
@@ -1074,19 +1074,19 @@
         <v>416155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>398229</v>
+        <v>398732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>432481</v>
+        <v>431538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8326909264690492</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7968224251797145</v>
+        <v>0.7978290135582079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8653582281491957</v>
+        <v>0.8634709455536442</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37934</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26760</v>
+        <v>27755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49524</v>
+        <v>49978</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2622454848530287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1850003242572083</v>
+        <v>0.1918774862434715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3423765437601977</v>
+        <v>0.3455095517105893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,19 +1199,19 @@
         <v>45713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34350</v>
+        <v>34793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57712</v>
+        <v>58545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2295386126247944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.172478882556845</v>
+        <v>0.1747064882067874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2897893940412025</v>
+        <v>0.2939695484736399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1220,19 +1220,19 @@
         <v>83647</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68656</v>
+        <v>68400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100966</v>
+        <v>100490</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2432995122254795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1996963801088412</v>
+        <v>0.1989533597605885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2936759050584787</v>
+        <v>0.2922916028485587</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>106715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95125</v>
+        <v>94671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117889</v>
+        <v>116894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7377545151469712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6576234562398025</v>
+        <v>0.6544904482894116</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8149996757427919</v>
+        <v>0.8081225137565284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -1270,19 +1270,19 @@
         <v>153439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141440</v>
+        <v>140607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164802</v>
+        <v>164359</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7704613873752056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7102106059587976</v>
+        <v>0.7060304515263601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8275211174431553</v>
+        <v>0.8252935117932125</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -1291,19 +1291,19 @@
         <v>260154</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>242835</v>
+        <v>243311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>275145</v>
+        <v>275401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7567004877745206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7063240949415214</v>
+        <v>0.7077083971514415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8003036198911593</v>
+        <v>0.8010466402394115</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>46638</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35842</v>
+        <v>35768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59247</v>
+        <v>57596</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2387723413929065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1834989533016632</v>
+        <v>0.1831207991473228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3033228245096478</v>
+        <v>0.2948713680770623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -1416,19 +1416,19 @@
         <v>67550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54342</v>
+        <v>52304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84490</v>
+        <v>82955</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2061357451212178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.165830352316417</v>
+        <v>0.15961117906623</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2578286724951916</v>
+        <v>0.25314518987201</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1437,19 +1437,19 @@
         <v>114189</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96501</v>
+        <v>96507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135099</v>
+        <v>135105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2183240789885992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1845069811981185</v>
+        <v>0.1845171211960534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2583036377586931</v>
+        <v>0.2583148577115184</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>148688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136079</v>
+        <v>137730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159484</v>
+        <v>159558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7612276586070935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.696677175490352</v>
+        <v>0.7051286319229375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8165010466983368</v>
+        <v>0.8168792008526771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -1487,19 +1487,19 @@
         <v>260147</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>243207</v>
+        <v>244742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>273355</v>
+        <v>275393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7938642548787822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7421713275048082</v>
+        <v>0.7468548101279899</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8341696476835827</v>
+        <v>0.84038882093377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>411</v>
@@ -1508,19 +1508,19 @@
         <v>408834</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>387924</v>
+        <v>387918</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>426522</v>
+        <v>426516</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7816759210114008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7416963622413069</v>
+        <v>0.741685142288482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8154930188018816</v>
+        <v>0.8154828788039467</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>130371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112921</v>
+        <v>110486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>154422</v>
+        <v>150898</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1977408233790627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1712729251392037</v>
+        <v>0.1675802193453685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2342203889680147</v>
+        <v>0.2288753790743633</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -1633,19 +1633,19 @@
         <v>210854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>187173</v>
+        <v>185204</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>238209</v>
+        <v>236783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.201125216867155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1785368794246313</v>
+        <v>0.176659003874954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2272182149675497</v>
+        <v>0.2258585717630131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>332</v>
@@ -1654,19 +1654,19 @@
         <v>341225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>311716</v>
+        <v>310393</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>376730</v>
+        <v>375671</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1998185624610324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1825387580403621</v>
+        <v>0.181763663909125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2206105094917492</v>
+        <v>0.2199903260549481</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>528931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>504880</v>
+        <v>508404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>546381</v>
+        <v>548816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8022591766209373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7657796110319857</v>
+        <v>0.7711246209256369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8287270748607963</v>
+        <v>0.8324197806546316</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>820</v>
@@ -1704,19 +1704,19 @@
         <v>837516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>810161</v>
+        <v>811587</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>861197</v>
+        <v>863166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.798874783132845</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7727817850324504</v>
+        <v>0.774141428236987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8214631205753687</v>
+        <v>0.8233409961250461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1351</v>
@@ -1725,19 +1725,19 @@
         <v>1366447</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1330942</v>
+        <v>1332001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1395956</v>
+        <v>1397279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8001814375389675</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7793894905082508</v>
+        <v>0.7800096739450521</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.817461241959638</v>
+        <v>0.818236336090875</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>38497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28152</v>
+        <v>27980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50730</v>
+        <v>49522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2155021643474277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1575899910147726</v>
+        <v>0.1566281524071477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2839789829230474</v>
+        <v>0.2772181029362248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2090,19 +2090,19 @@
         <v>37159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27009</v>
+        <v>26428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50014</v>
+        <v>49406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1567030179229049</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1138978394589382</v>
+        <v>0.1114512250854959</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2109159275436818</v>
+        <v>0.208351092801631</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -2111,19 +2111,19 @@
         <v>75656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61506</v>
+        <v>61448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93781</v>
+        <v>92935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1819666406898848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1479342584292626</v>
+        <v>0.1477924253573756</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2255597294775041</v>
+        <v>0.2235244759194196</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>140142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>127909</v>
+        <v>129117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150487</v>
+        <v>150659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7844978356525723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7160210170769526</v>
+        <v>0.7227818970637756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8424100089852277</v>
+        <v>0.8433718475928523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -2161,19 +2161,19 @@
         <v>199971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>187116</v>
+        <v>187724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>210121</v>
+        <v>210702</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.843296982077095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7890840724563182</v>
+        <v>0.791648907198369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8861021605410618</v>
+        <v>0.8885487749145042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -2182,19 +2182,19 @@
         <v>340113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321988</v>
+        <v>322834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354263</v>
+        <v>354321</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8180333593101152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7744402705224958</v>
+        <v>0.7764755240805804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8520657415707368</v>
+        <v>0.8522075746426244</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>44788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33297</v>
+        <v>34508</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59444</v>
+        <v>58475</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1884847625737583</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1401262525670366</v>
+        <v>0.1452229278475284</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2501640451191344</v>
+        <v>0.2460871787363813</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2307,19 +2307,19 @@
         <v>61117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48071</v>
+        <v>46264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77396</v>
+        <v>77119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1716709071567114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1350250001724602</v>
+        <v>0.1299512350132618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2173954607686166</v>
+        <v>0.2166167274579378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -2328,19 +2328,19 @@
         <v>105905</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87226</v>
+        <v>86994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125529</v>
+        <v>126519</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1784011604465675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1469356247673052</v>
+        <v>0.1465454526292343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2114579926569717</v>
+        <v>0.2131257200754967</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>192832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178176</v>
+        <v>179145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>204323</v>
+        <v>203112</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8115152374262418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7498359548808655</v>
+        <v>0.7539128212636185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8598737474329633</v>
+        <v>0.8547770721524716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -2378,19 +2378,19 @@
         <v>294897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278618</v>
+        <v>278895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>307943</v>
+        <v>309750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8283290928432886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7826045392313834</v>
+        <v>0.7833832725420619</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8649749998275398</v>
+        <v>0.8700487649867381</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>448</v>
@@ -2399,19 +2399,19 @@
         <v>487729</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>468105</v>
+        <v>467115</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>506408</v>
+        <v>506640</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8215988395534325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7885420073430283</v>
+        <v>0.7868742799245032</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8530643752326948</v>
+        <v>0.8534545473707651</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>38770</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28292</v>
+        <v>27865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50957</v>
+        <v>51543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2197712413939124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1603769895095057</v>
+        <v>0.157954306538169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2888546749862899</v>
+        <v>0.2921783958337216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -2524,19 +2524,19 @@
         <v>45183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34078</v>
+        <v>34105</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58406</v>
+        <v>58757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.196038582090682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1478556717031857</v>
+        <v>0.147973667406839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.25340876243554</v>
+        <v>0.2549327348613479</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -2545,19 +2545,19 @@
         <v>83953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67263</v>
+        <v>67717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100571</v>
+        <v>101122</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2063280885885894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.165310629973472</v>
+        <v>0.1664244027292394</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2471698160570457</v>
+        <v>0.2485240366955753</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>137641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125454</v>
+        <v>124868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148119</v>
+        <v>148546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7802287586060875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.71114532501371</v>
+        <v>0.7078216041662784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8396230104904941</v>
+        <v>0.8420456934618309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -2595,19 +2595,19 @@
         <v>185297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172074</v>
+        <v>171723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196402</v>
+        <v>196375</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.803961417909318</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7465912375644602</v>
+        <v>0.7450672651386525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8521443282968146</v>
+        <v>0.8520263325931611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>286</v>
@@ -2616,19 +2616,19 @@
         <v>322938</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>306320</v>
+        <v>305769</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>339628</v>
+        <v>339174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7936719114114106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7528301839429544</v>
+        <v>0.7514759633044247</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8346893700265283</v>
+        <v>0.8335755972707606</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>41033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29227</v>
+        <v>29463</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53566</v>
+        <v>53819</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2188798554461634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1559018322432073</v>
+        <v>0.1571608637079415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2857334715054025</v>
+        <v>0.287081749200741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -2741,19 +2741,19 @@
         <v>69849</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54724</v>
+        <v>55117</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84814</v>
+        <v>85578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2117658594381751</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1659117204008019</v>
+        <v>0.1671017288144861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.257136996341248</v>
+        <v>0.2594527272207556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -2762,19 +2762,19 @@
         <v>110882</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>91926</v>
+        <v>92158</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129245</v>
+        <v>130012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2143439273971488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.17769952302669</v>
+        <v>0.1781482551700461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2498410009840435</v>
+        <v>0.2513237462780573</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>146437</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133904</v>
+        <v>133651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158243</v>
+        <v>158007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7811201445538366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.714266528494597</v>
+        <v>0.712918250799259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8440981677567923</v>
+        <v>0.8428391362920585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -2812,19 +2812,19 @@
         <v>259991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>245026</v>
+        <v>244262</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275116</v>
+        <v>274723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7882341405618248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7428630036587518</v>
+        <v>0.7405472727792441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8340882795991981</v>
+        <v>0.8328982711855135</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>387</v>
@@ -2833,19 +2833,19 @@
         <v>406428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>388065</v>
+        <v>387298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>425384</v>
+        <v>425152</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7856560726028512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7501589990159565</v>
+        <v>0.748676253721943</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8223004769733102</v>
+        <v>0.8218517448299539</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>163088</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141122</v>
+        <v>141071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186859</v>
+        <v>189390</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2090500595025294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1808934298997096</v>
+        <v>0.1808275698810946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2395201301574019</v>
+        <v>0.2427637204436983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -2958,19 +2958,19 @@
         <v>213308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186460</v>
+        <v>186803</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240512</v>
+        <v>240860</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1849282276401104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1616521428877156</v>
+        <v>0.1619494305958766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2085130572468187</v>
+        <v>0.2088141190868634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>354</v>
@@ -2979,19 +2979,19 @@
         <v>376396</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>341626</v>
+        <v>341184</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414705</v>
+        <v>413466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1946605266301123</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1766784060125891</v>
+        <v>0.1764496197126491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.214472366034318</v>
+        <v>0.2138316289431503</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>617052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>593281</v>
+        <v>590750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>639018</v>
+        <v>639069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7909499404974706</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7604798698425982</v>
+        <v>0.7572362795563019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8191065701002904</v>
+        <v>0.8191724301189055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>872</v>
@@ -3029,19 +3029,19 @@
         <v>940156</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>912952</v>
+        <v>912604</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>967004</v>
+        <v>966661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8150717723598896</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7914869427531812</v>
+        <v>0.7911858809131365</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8383478571122843</v>
+        <v>0.8380505694041234</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1437</v>
@@ -3050,19 +3050,19 @@
         <v>1557208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1518899</v>
+        <v>1520138</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1591978</v>
+        <v>1592420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8053394733698878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7855276339656824</v>
+        <v>0.7861683710568497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.823321593987411</v>
+        <v>0.8235503802873508</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>28703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19166</v>
+        <v>19764</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39538</v>
+        <v>39314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.148565556190752</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09920245230437653</v>
+        <v>0.102296725465441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2046476174938084</v>
+        <v>0.2034909018411788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -3415,19 +3415,19 @@
         <v>51887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40197</v>
+        <v>40270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65221</v>
+        <v>65379</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2092391692968453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1620973490382851</v>
+        <v>0.1623919019028216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2630101864332044</v>
+        <v>0.2636490654279171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3436,19 +3436,19 @@
         <v>80589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64426</v>
+        <v>64061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97440</v>
+        <v>98252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1826691000864266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1460327649860862</v>
+        <v>0.1452040324036798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2208647717121366</v>
+        <v>0.2227037107926154</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>164496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153661</v>
+        <v>153885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174033</v>
+        <v>173435</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.851434443809248</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7953523825061912</v>
+        <v>0.7965090981588212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9007975476956233</v>
+        <v>0.8977032745345589</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>189</v>
@@ -3486,19 +3486,19 @@
         <v>196091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182757</v>
+        <v>182599</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>207781</v>
+        <v>207708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7907608307031547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7369898135667959</v>
+        <v>0.736350934572083</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.837902650961715</v>
+        <v>0.8376080980971784</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>348</v>
@@ -3507,19 +3507,19 @@
         <v>360588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343737</v>
+        <v>342925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>376751</v>
+        <v>377116</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8173308999135734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7791352282878636</v>
+        <v>0.7772962892073846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8539672350139141</v>
+        <v>0.8547959675963201</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>39298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27574</v>
+        <v>28509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53097</v>
+        <v>53247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1479437378621664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1038091719102732</v>
+        <v>0.1073279057649725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1998931286527781</v>
+        <v>0.2004599637115916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3632,19 +3632,19 @@
         <v>49394</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37511</v>
+        <v>36565</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64549</v>
+        <v>64211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1392079492340113</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1057185969306235</v>
+        <v>0.1030522083174579</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1819189908218646</v>
+        <v>0.1809663719432809</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3653,19 +3653,19 @@
         <v>88692</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71120</v>
+        <v>71780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108139</v>
+        <v>108883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1429479009220661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1146268842987083</v>
+        <v>0.1156902294775413</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1742906004336189</v>
+        <v>0.1754899384839749</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>226328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212529</v>
+        <v>212379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>238052</v>
+        <v>237117</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8520562621378336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.800106871347222</v>
+        <v>0.7995400362884085</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8961908280897269</v>
+        <v>0.8926720942350276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>281</v>
@@ -3703,19 +3703,19 @@
         <v>305430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290275</v>
+        <v>290613</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317313</v>
+        <v>318259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8607920507659886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8180810091781356</v>
+        <v>0.8190336280567192</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8942814030693766</v>
+        <v>0.8969477916825427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>491</v>
@@ -3724,19 +3724,19 @@
         <v>531758</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>512311</v>
+        <v>511567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>549330</v>
+        <v>548670</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.857052099077934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8257093995663811</v>
+        <v>0.824510061516025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8853731157012916</v>
+        <v>0.8843097705224586</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>41531</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30301</v>
+        <v>29541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54235</v>
+        <v>54876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2376365651895335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1733823934129421</v>
+        <v>0.1690294710654446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3103309574343476</v>
+        <v>0.3139964621963472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -3849,19 +3849,19 @@
         <v>63813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51204</v>
+        <v>50370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77578</v>
+        <v>79044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2542457478549318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2040105602651383</v>
+        <v>0.2006879878896611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3090924500927372</v>
+        <v>0.3149312837195708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -3870,19 +3870,19 @@
         <v>105343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>88572</v>
+        <v>88137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123978</v>
+        <v>125222</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2474279030341381</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2080366202414986</v>
+        <v>0.2070144093915214</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2911972629419022</v>
+        <v>0.294117772250205</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>133235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>120531</v>
+        <v>119890</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144465</v>
+        <v>145225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7623634348104664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6896690425656528</v>
+        <v>0.6860035378036531</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.826617606587058</v>
+        <v>0.8309705289345556</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -3920,19 +3920,19 @@
         <v>187175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>173410</v>
+        <v>171944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>199784</v>
+        <v>200618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7457542521450683</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6909075499072627</v>
+        <v>0.6850687162804292</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7959894397348615</v>
+        <v>0.7993120121103388</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>297</v>
@@ -3941,19 +3941,19 @@
         <v>320411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>301776</v>
+        <v>300532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>337182</v>
+        <v>337617</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7525720969658619</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7088027370580978</v>
+        <v>0.7058822277497949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7919633797585015</v>
+        <v>0.7929855906084786</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>46421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34214</v>
+        <v>34985</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58460</v>
+        <v>59831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2128972435391435</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1569142022000884</v>
+        <v>0.1604494799426257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2681157251772857</v>
+        <v>0.2744011058125986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4066,19 +4066,19 @@
         <v>55790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42247</v>
+        <v>42721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70206</v>
+        <v>70993</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1796606212394126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1360470338191205</v>
+        <v>0.1375746756369122</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2260828727251851</v>
+        <v>0.2286188248428041</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4087,19 +4087,19 @@
         <v>102211</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85652</v>
+        <v>84034</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121497</v>
+        <v>122336</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1933711071306944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1620445893679601</v>
+        <v>0.1589830563572875</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2298587563221399</v>
+        <v>0.2314456121989046</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>171621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159582</v>
+        <v>158211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183828</v>
+        <v>183057</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7871027564608565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7318842748227142</v>
+        <v>0.7255988941874012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8430857977999116</v>
+        <v>0.8395505200573743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>230</v>
@@ -4137,19 +4137,19 @@
         <v>254740</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240324</v>
+        <v>239537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>268283</v>
+        <v>267809</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8203393787605874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.773917127274815</v>
+        <v>0.7713811751571946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8639529661808795</v>
+        <v>0.8624253243630878</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -4158,19 +4158,19 @@
         <v>426362</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>407076</v>
+        <v>406237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>442921</v>
+        <v>444539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8066288928693056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7701412436778602</v>
+        <v>0.7685543878010952</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.83795541063204</v>
+        <v>0.8410169436427117</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>155952</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134560</v>
+        <v>136064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180330</v>
+        <v>179774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1831208474244457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1580025727371087</v>
+        <v>0.1597679792348446</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2117459338961136</v>
+        <v>0.2110929027092891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -4283,19 +4283,19 @@
         <v>220884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194464</v>
+        <v>194773</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>249524</v>
+        <v>250721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1897104246343916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1670190070277227</v>
+        <v>0.167284574016407</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2143085238090158</v>
+        <v>0.2153364614036035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>350</v>
@@ -4304,19 +4304,19 @@
         <v>376835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>340554</v>
+        <v>341487</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411565</v>
+        <v>414414</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1869266763693868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1689293101385861</v>
+        <v>0.1693921873062321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2041539121687123</v>
+        <v>0.2055670889741136</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>695682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>671304</v>
+        <v>671860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>717074</v>
+        <v>715570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8168791525755543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7882540661038867</v>
+        <v>0.7889070972907108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8419974272628913</v>
+        <v>0.8402320207651554</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>873</v>
@@ -4354,19 +4354,19 @@
         <v>943436</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>914796</v>
+        <v>913599</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>969856</v>
+        <v>969547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8102895753656084</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7856914761909839</v>
+        <v>0.7846635385963966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8329809929722773</v>
+        <v>0.832715425983593</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1539</v>
@@ -4375,19 +4375,19 @@
         <v>1639118</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1604388</v>
+        <v>1601539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1675399</v>
+        <v>1674466</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8130733236306131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7958460878312876</v>
+        <v>0.7944329110258864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8310706898614139</v>
+        <v>0.8306078126937679</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>21409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14424</v>
+        <v>14305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30897</v>
+        <v>30519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1772888398210577</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1194414805252407</v>
+        <v>0.118456439867062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2558568719269375</v>
+        <v>0.2527254715325877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -4740,19 +4740,19 @@
         <v>30019</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21696</v>
+        <v>22242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41355</v>
+        <v>40803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1669440728929854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1206549658704547</v>
+        <v>0.1236919270808308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.229982892937024</v>
+        <v>0.2269150265100135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -4761,19 +4761,19 @@
         <v>51428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40309</v>
+        <v>41110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64900</v>
+        <v>66048</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1711002054099448</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1341050928008797</v>
+        <v>0.136771073607151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2159181310534462</v>
+        <v>0.2197374760876016</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>99351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89863</v>
+        <v>90241</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106336</v>
+        <v>106455</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8227111601789423</v>
+        <v>0.8227111601789424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7441431280730626</v>
+        <v>0.7472745284674118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8805585194747594</v>
+        <v>0.8815435601329377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -4811,19 +4811,19 @@
         <v>149797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138461</v>
+        <v>139013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158120</v>
+        <v>157574</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8330559271070146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7700171070629762</v>
+        <v>0.7730849734899871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8793450341295455</v>
+        <v>0.8763080729191692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -4832,19 +4832,19 @@
         <v>249147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>235675</v>
+        <v>234527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>260266</v>
+        <v>259465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8288997945900551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7840818689465536</v>
+        <v>0.7802625239123983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8658949071991201</v>
+        <v>0.8632289263928491</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>40668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29135</v>
+        <v>29396</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52887</v>
+        <v>54473</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2002344672745584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1434472548343388</v>
+        <v>0.1447352298559811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.260392240168773</v>
+        <v>0.2682038257180468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -4957,19 +4957,19 @@
         <v>50841</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41061</v>
+        <v>40696</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66276</v>
+        <v>64295</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2070703925431287</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.167236887685896</v>
+        <v>0.1657480536717414</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2699354285826631</v>
+        <v>0.2618672173836142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -4978,19 +4978,19 @@
         <v>91510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75132</v>
+        <v>77282</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110108</v>
+        <v>109901</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2039756338120999</v>
+        <v>0.2039756338120998</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1674695352522828</v>
+        <v>0.1722616983894573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2454306014329137</v>
+        <v>0.2449697202397405</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>162436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>150217</v>
+        <v>148631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173969</v>
+        <v>173708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7997655327254417</v>
+        <v>0.7997655327254415</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7396077598312268</v>
+        <v>0.731796174281953</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8565527451656613</v>
+        <v>0.855264770144019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>280</v>
@@ -5028,19 +5028,19 @@
         <v>194686</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>179251</v>
+        <v>181232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204466</v>
+        <v>204831</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7929296074568714</v>
+        <v>0.7929296074568712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7300645714173367</v>
+        <v>0.7381327826163849</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8327631123141039</v>
+        <v>0.8342519463282585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>434</v>
@@ -5049,19 +5049,19 @@
         <v>357121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>338523</v>
+        <v>338730</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>373499</v>
+        <v>371349</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7960243661879005</v>
+        <v>0.7960243661879002</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7545693985670869</v>
+        <v>0.7550302797602595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8325304647477179</v>
+        <v>0.8277383016105425</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>47681</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35996</v>
+        <v>36814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60658</v>
+        <v>60524</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.325838940021968</v>
+        <v>0.3258389400219679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2459885045411896</v>
+        <v>0.2515780963871861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4145235327165743</v>
+        <v>0.4136025478444222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -5174,19 +5174,19 @@
         <v>47527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36992</v>
+        <v>37599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58474</v>
+        <v>60019</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2643993735792438</v>
+        <v>0.2643993735792439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2057930873325339</v>
+        <v>0.2091704131806765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3252999980523446</v>
+        <v>0.3338945393706581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -5195,19 +5195,19 @@
         <v>95208</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79506</v>
+        <v>78806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110225</v>
+        <v>112302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2919706228540144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2438202606590125</v>
+        <v>0.2416719339976927</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3380244426366034</v>
+        <v>0.3443942461740345</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>98652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>85675</v>
+        <v>85809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110337</v>
+        <v>109519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6741610599780321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5854764672834256</v>
+        <v>0.5863974521555779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7540114954588104</v>
+        <v>0.7484219036128138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>181</v>
@@ -5245,19 +5245,19 @@
         <v>132227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121280</v>
+        <v>119735</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142762</v>
+        <v>142155</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7356006264207562</v>
+        <v>0.7356006264207563</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6747000019476556</v>
+        <v>0.6661054606293421</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7942069126674661</v>
+        <v>0.7908295868193235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>278</v>
@@ -5266,19 +5266,19 @@
         <v>230878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>215861</v>
+        <v>213784</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246580</v>
+        <v>247280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7080293771459857</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6619755573633962</v>
+        <v>0.6556057538259654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7561797393409859</v>
+        <v>0.7583280660023072</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>57552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45403</v>
+        <v>45104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71863</v>
+        <v>70953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2642759402644557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2084890165522431</v>
+        <v>0.2071139508628647</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3299907239550793</v>
+        <v>0.325810145427844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -5391,19 +5391,19 @@
         <v>91406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78486</v>
+        <v>77265</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106789</v>
+        <v>107983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2849881596796082</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2447067045603917</v>
+        <v>0.2408983865799753</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3329483422754692</v>
+        <v>0.3366719411208677</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -5412,19 +5412,19 @@
         <v>148958</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130837</v>
+        <v>131252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169204</v>
+        <v>169580</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.276612145541048</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2429608611718735</v>
+        <v>0.2437314686280124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3142090533243606</v>
+        <v>0.3149064503595198</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>160221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145910</v>
+        <v>146820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172370</v>
+        <v>172669</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7357240597355444</v>
+        <v>0.7357240597355443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6700092760449206</v>
+        <v>0.6741898545721559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7915109834477568</v>
+        <v>0.7928860491371352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -5462,19 +5462,19 @@
         <v>229330</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>213947</v>
+        <v>212753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242250</v>
+        <v>243471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7150118403203918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6670516577245306</v>
+        <v>0.6633280588791319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7552932954396083</v>
+        <v>0.7591016134200245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -5483,19 +5483,19 @@
         <v>389551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369305</v>
+        <v>368929</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>407672</v>
+        <v>407257</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7233878544589519</v>
+        <v>0.723387854458952</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6857909466756393</v>
+        <v>0.6850935496404804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7570391388281263</v>
+        <v>0.7562685313719876</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>167311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145097</v>
+        <v>145143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191093</v>
+        <v>192780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2431951222482862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.210906192091783</v>
+        <v>0.2109730197393642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2777640469241986</v>
+        <v>0.2802157434847198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>302</v>
@@ -5608,19 +5608,19 @@
         <v>219793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>196895</v>
+        <v>199512</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>242527</v>
+        <v>242296</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2374007241130298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2126676159175613</v>
+        <v>0.2154949997950336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2619549219003032</v>
+        <v>0.2617060293260219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>475</v>
@@ -5629,19 +5629,19 @@
         <v>387104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>357186</v>
+        <v>357610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>419943</v>
+        <v>418489</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2398708960855924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2213319368240826</v>
+        <v>0.2215944788345659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2602195410958003</v>
+        <v>0.259318435965561</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>520658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>496876</v>
+        <v>495189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542872</v>
+        <v>542826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7568048777517139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7222359530758016</v>
+        <v>0.7197842565152799</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7890938079082169</v>
+        <v>0.7890269802606358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1048</v>
@@ -5679,19 +5679,19 @@
         <v>706040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>683306</v>
+        <v>683537</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>728938</v>
+        <v>726321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7625992758869702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7380450780996968</v>
+        <v>0.738293970673978</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7873323840824389</v>
+        <v>0.7845050002049664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1585</v>
@@ -5700,19 +5700,19 @@
         <v>1226698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1193859</v>
+        <v>1195313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1256616</v>
+        <v>1256192</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7601291039144075</v>
+        <v>0.7601291039144076</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7397804589041997</v>
+        <v>0.7406815640344392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7786680631759174</v>
+        <v>0.7784055211654339</v>
       </c>
     </row>
     <row r="18">
